--- a/21 - Basics of Data Analytics - Fudamentals/Class Notes/ClassNotes4_20180203_ManjunathVenkataAvvari_DAF.xlsx
+++ b/21 - Basics of Data Analytics - Fudamentals/Class Notes/ClassNotes4_20180203_ManjunathVenkataAvvari_DAF.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LEARNING\NPTEL - IISc &amp; IIT\IISc Proficience\21 - Basics of Data Analytics - Fudamentals\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LEARNING\NPTEL - IISc &amp; IIT\IISc Proficience\21 - Basics of Data Analytics - Fudamentals\Class Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15645" windowHeight="6810" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15645" windowHeight="6810" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Problem1" sheetId="1" r:id="rId1"/>
     <sheet name="Problem2" sheetId="2" r:id="rId2"/>
+    <sheet name="2017-Test1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="41">
   <si>
     <t>Year</t>
   </si>
@@ -280,6 +281,12 @@
   <si>
     <t>Pearson Coefficient, r = 0.969695512159858</t>
   </si>
+  <si>
+    <t>Ozone Depletion % (x)</t>
+  </si>
+  <si>
+    <t>Skin Cancer rate % (y)</t>
+  </si>
 </sst>
 </file>
 
@@ -420,7 +427,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -615,11 +622,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -687,6 +725,65 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -702,6 +799,1000 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2017-Test1'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Skin Cancer rate % (y)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2017-Test1'!$C$3:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2017-Test1'!$D$3:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-29B6-474F-8D3C-C4298BD2DE54}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1201802672"/>
+        <c:axId val="1201801008"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1201802672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1201801008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1201801008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1201802672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -970,7 +2061,7 @@
   <dimension ref="B1:J29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1513,8 +2604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2366,4 +3457,747 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:K40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="63" x14ac:dyDescent="0.25">
+      <c r="C2" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="46" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="38"/>
+      <c r="C3" s="47">
+        <v>5</v>
+      </c>
+      <c r="D3" s="41">
+        <v>1</v>
+      </c>
+      <c r="E3" s="41">
+        <f>C3-C15</f>
+        <v>-17.636363636363637</v>
+      </c>
+      <c r="F3" s="41">
+        <f>E3*E3</f>
+        <v>311.04132231404958</v>
+      </c>
+      <c r="G3" s="41">
+        <f>D3-D15</f>
+        <v>-4.4545454545454541</v>
+      </c>
+      <c r="H3" s="41">
+        <f>G3*G3</f>
+        <v>19.842975206611566</v>
+      </c>
+      <c r="I3" s="42">
+        <f>E3*G3</f>
+        <v>78.56198347107437</v>
+      </c>
+      <c r="J3" s="42">
+        <f>C3*C3</f>
+        <v>25</v>
+      </c>
+      <c r="K3" s="48">
+        <f>C3*D3</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="38"/>
+      <c r="C4" s="47">
+        <v>7</v>
+      </c>
+      <c r="D4" s="41">
+        <v>1</v>
+      </c>
+      <c r="E4" s="41">
+        <f>C4-C15</f>
+        <v>-15.636363636363637</v>
+      </c>
+      <c r="F4" s="41">
+        <f t="shared" ref="F4:F13" si="0">E4*E4</f>
+        <v>244.49586776859505</v>
+      </c>
+      <c r="G4" s="41">
+        <f>D4-D15</f>
+        <v>-4.4545454545454541</v>
+      </c>
+      <c r="H4" s="41">
+        <f t="shared" ref="H4:H13" si="1">G4*G4</f>
+        <v>19.842975206611566</v>
+      </c>
+      <c r="I4" s="42">
+        <f t="shared" ref="I4:I13" si="2">E4*G4</f>
+        <v>69.652892561983464</v>
+      </c>
+      <c r="J4" s="42">
+        <f t="shared" ref="J4:J13" si="3">C4*C4</f>
+        <v>49</v>
+      </c>
+      <c r="K4" s="48">
+        <f t="shared" ref="K4:K13" si="4">C4*D4</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="38"/>
+      <c r="C5" s="47">
+        <v>13</v>
+      </c>
+      <c r="D5" s="41">
+        <v>3</v>
+      </c>
+      <c r="E5" s="41">
+        <f>C5-C15</f>
+        <v>-9.6363636363636367</v>
+      </c>
+      <c r="F5" s="41">
+        <f t="shared" si="0"/>
+        <v>92.859504132231407</v>
+      </c>
+      <c r="G5" s="41">
+        <f>D5-D15</f>
+        <v>-2.4545454545454541</v>
+      </c>
+      <c r="H5" s="41">
+        <f t="shared" si="1"/>
+        <v>6.0247933884297504</v>
+      </c>
+      <c r="I5" s="42">
+        <f t="shared" si="2"/>
+        <v>23.652892561983467</v>
+      </c>
+      <c r="J5" s="42">
+        <f t="shared" si="3"/>
+        <v>169</v>
+      </c>
+      <c r="K5" s="48">
+        <f t="shared" si="4"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="38"/>
+      <c r="C6" s="47">
+        <v>14</v>
+      </c>
+      <c r="D6" s="41">
+        <v>4</v>
+      </c>
+      <c r="E6" s="41">
+        <f>C6-C15</f>
+        <v>-8.6363636363636367</v>
+      </c>
+      <c r="F6" s="41">
+        <f t="shared" si="0"/>
+        <v>74.586776859504141</v>
+      </c>
+      <c r="G6" s="41">
+        <f>D6-D15</f>
+        <v>-1.4545454545454541</v>
+      </c>
+      <c r="H6" s="41">
+        <f t="shared" si="1"/>
+        <v>2.1157024793388417</v>
+      </c>
+      <c r="I6" s="42">
+        <f t="shared" si="2"/>
+        <v>12.561983471074377</v>
+      </c>
+      <c r="J6" s="42">
+        <f t="shared" si="3"/>
+        <v>196</v>
+      </c>
+      <c r="K6" s="48">
+        <f t="shared" si="4"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="38"/>
+      <c r="C7" s="47">
+        <v>17</v>
+      </c>
+      <c r="D7" s="41">
+        <v>6</v>
+      </c>
+      <c r="E7" s="41">
+        <f>C7-C15</f>
+        <v>-5.6363636363636367</v>
+      </c>
+      <c r="F7" s="41">
+        <f t="shared" si="0"/>
+        <v>31.768595041322317</v>
+      </c>
+      <c r="G7" s="41">
+        <f>D7-D15</f>
+        <v>0.54545454545454586</v>
+      </c>
+      <c r="H7" s="41">
+        <f t="shared" si="1"/>
+        <v>0.29752066115702525</v>
+      </c>
+      <c r="I7" s="42">
+        <f t="shared" si="2"/>
+        <v>-3.0743801652892588</v>
+      </c>
+      <c r="J7" s="42">
+        <f t="shared" si="3"/>
+        <v>289</v>
+      </c>
+      <c r="K7" s="48">
+        <f t="shared" si="4"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="38"/>
+      <c r="C8" s="47">
+        <v>20</v>
+      </c>
+      <c r="D8" s="41">
+        <v>5</v>
+      </c>
+      <c r="E8" s="41">
+        <f>C8-C15</f>
+        <v>-2.6363636363636367</v>
+      </c>
+      <c r="F8" s="41">
+        <f t="shared" si="0"/>
+        <v>6.9504132231404974</v>
+      </c>
+      <c r="G8" s="41">
+        <f>D8-D15</f>
+        <v>-0.45454545454545414</v>
+      </c>
+      <c r="H8" s="41">
+        <f t="shared" si="1"/>
+        <v>0.20661157024793353</v>
+      </c>
+      <c r="I8" s="42">
+        <f t="shared" si="2"/>
+        <v>1.1983471074380156</v>
+      </c>
+      <c r="J8" s="42">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+      <c r="K8" s="48">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="38"/>
+      <c r="C9" s="47">
+        <v>26</v>
+      </c>
+      <c r="D9" s="41">
+        <v>6</v>
+      </c>
+      <c r="E9" s="41">
+        <f>C9-C15</f>
+        <v>3.3636363636363633</v>
+      </c>
+      <c r="F9" s="41">
+        <f t="shared" si="0"/>
+        <v>11.314049586776857</v>
+      </c>
+      <c r="G9" s="41">
+        <f>D9-D15</f>
+        <v>0.54545454545454586</v>
+      </c>
+      <c r="H9" s="41">
+        <f t="shared" si="1"/>
+        <v>0.29752066115702525</v>
+      </c>
+      <c r="I9" s="42">
+        <f t="shared" si="2"/>
+        <v>1.8347107438016541</v>
+      </c>
+      <c r="J9" s="42">
+        <f t="shared" si="3"/>
+        <v>676</v>
+      </c>
+      <c r="K9" s="48">
+        <f t="shared" si="4"/>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="38"/>
+      <c r="C10" s="47">
+        <v>30</v>
+      </c>
+      <c r="D10" s="41">
+        <v>8</v>
+      </c>
+      <c r="E10" s="41">
+        <f>C10-C15</f>
+        <v>7.3636363636363633</v>
+      </c>
+      <c r="F10" s="41">
+        <f t="shared" si="0"/>
+        <v>54.223140495867767</v>
+      </c>
+      <c r="G10" s="41">
+        <f>D10-D15</f>
+        <v>2.5454545454545459</v>
+      </c>
+      <c r="H10" s="41">
+        <f t="shared" si="1"/>
+        <v>6.479338842975209</v>
+      </c>
+      <c r="I10" s="42">
+        <f t="shared" si="2"/>
+        <v>18.743801652892564</v>
+      </c>
+      <c r="J10" s="42">
+        <f t="shared" si="3"/>
+        <v>900</v>
+      </c>
+      <c r="K10" s="48">
+        <f t="shared" si="4"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="38"/>
+      <c r="C11" s="47">
+        <v>34</v>
+      </c>
+      <c r="D11" s="41">
+        <v>7</v>
+      </c>
+      <c r="E11" s="41">
+        <f>C11-C15</f>
+        <v>11.363636363636363</v>
+      </c>
+      <c r="F11" s="41">
+        <f t="shared" si="0"/>
+        <v>129.13223140495867</v>
+      </c>
+      <c r="G11" s="41">
+        <f>D11-D15</f>
+        <v>1.5454545454545459</v>
+      </c>
+      <c r="H11" s="41">
+        <f t="shared" si="1"/>
+        <v>2.3884297520661169</v>
+      </c>
+      <c r="I11" s="42">
+        <f t="shared" si="2"/>
+        <v>17.561983471074385</v>
+      </c>
+      <c r="J11" s="42">
+        <f t="shared" si="3"/>
+        <v>1156</v>
+      </c>
+      <c r="K11" s="48">
+        <f t="shared" si="4"/>
+        <v>238</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="38"/>
+      <c r="C12" s="47">
+        <v>39</v>
+      </c>
+      <c r="D12" s="41">
+        <v>10</v>
+      </c>
+      <c r="E12" s="41">
+        <f>C12-C15</f>
+        <v>16.363636363636363</v>
+      </c>
+      <c r="F12" s="41">
+        <f t="shared" si="0"/>
+        <v>267.76859504132233</v>
+      </c>
+      <c r="G12" s="41">
+        <f>D12-D15</f>
+        <v>4.5454545454545459</v>
+      </c>
+      <c r="H12" s="41">
+        <f t="shared" si="1"/>
+        <v>20.661157024793393</v>
+      </c>
+      <c r="I12" s="42">
+        <f t="shared" si="2"/>
+        <v>74.380165289256198</v>
+      </c>
+      <c r="J12" s="42">
+        <f t="shared" si="3"/>
+        <v>1521</v>
+      </c>
+      <c r="K12" s="48">
+        <f t="shared" si="4"/>
+        <v>390</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="38"/>
+      <c r="C13" s="47">
+        <v>44</v>
+      </c>
+      <c r="D13" s="41">
+        <v>9</v>
+      </c>
+      <c r="E13" s="41">
+        <f>C13-C15</f>
+        <v>21.363636363636363</v>
+      </c>
+      <c r="F13" s="41">
+        <f t="shared" si="0"/>
+        <v>456.40495867768595</v>
+      </c>
+      <c r="G13" s="41">
+        <f>D13-D15</f>
+        <v>3.5454545454545459</v>
+      </c>
+      <c r="H13" s="41">
+        <f t="shared" si="1"/>
+        <v>12.5702479338843</v>
+      </c>
+      <c r="I13" s="42">
+        <f t="shared" si="2"/>
+        <v>75.743801652892571</v>
+      </c>
+      <c r="J13" s="42">
+        <f t="shared" si="3"/>
+        <v>1936</v>
+      </c>
+      <c r="K13" s="48">
+        <f t="shared" si="4"/>
+        <v>396</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="49">
+        <f>SUM(C3:C13)</f>
+        <v>249</v>
+      </c>
+      <c r="D14" s="43">
+        <f>SUM(D3:D13)</f>
+        <v>60</v>
+      </c>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43">
+        <f>SUM(F3:F13)</f>
+        <v>1680.5454545454545</v>
+      </c>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43">
+        <f>SUM(H3:H13)</f>
+        <v>90.727272727272734</v>
+      </c>
+      <c r="I14" s="43">
+        <f>SUM(I3:I13)</f>
+        <v>370.81818181818176</v>
+      </c>
+      <c r="J14" s="43"/>
+      <c r="K14" s="50"/>
+    </row>
+    <row r="15" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="40"/>
+      <c r="C15" s="51">
+        <f>AVERAGE(C3:C13)</f>
+        <v>22.636363636363637</v>
+      </c>
+      <c r="D15" s="52">
+        <f>AVERAGE(D3:D13)</f>
+        <v>5.4545454545454541</v>
+      </c>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="54"/>
+    </row>
+    <row r="17" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="37"/>
+      <c r="C18" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="35">
+        <v>1</v>
+      </c>
+      <c r="D19" s="35"/>
+    </row>
+    <row r="20" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="36">
+        <v>0.94965740784338082</v>
+      </c>
+      <c r="D20" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="55"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="35">
+        <v>0.94965740784338093</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="35">
+        <v>0.9018491922718096</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="35">
+        <v>0.89094354696867739</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="35">
+        <v>0.99470571310522882</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="36">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="37"/>
+      <c r="C33" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="G33" s="37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="35">
+        <v>1</v>
+      </c>
+      <c r="D34" s="35">
+        <v>81.822317626115094</v>
+      </c>
+      <c r="E34" s="35">
+        <v>81.822317626115094</v>
+      </c>
+      <c r="F34" s="35">
+        <v>82.695628475353502</v>
+      </c>
+      <c r="G34" s="35">
+        <v>7.8437178841730929E-6</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="35">
+        <v>9</v>
+      </c>
+      <c r="D35" s="35">
+        <v>8.9049551011576362</v>
+      </c>
+      <c r="E35" s="35">
+        <v>0.98943945568418179</v>
+      </c>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
+    </row>
+    <row r="36" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="36">
+        <v>10</v>
+      </c>
+      <c r="D36" s="36">
+        <v>90.727272727272734</v>
+      </c>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+    </row>
+    <row r="37" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B38" s="37"/>
+      <c r="C38" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="F38" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="G38" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="H38" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="I38" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="J38" s="37" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B39" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="35">
+        <v>0.45975332684193315</v>
+      </c>
+      <c r="D39" s="35">
+        <v>0.62580591758199478</v>
+      </c>
+      <c r="E39" s="35">
+        <v>0.73465800486249799</v>
+      </c>
+      <c r="F39" s="35">
+        <v>0.48125025399845855</v>
+      </c>
+      <c r="G39" s="35">
+        <v>-0.95591801213767957</v>
+      </c>
+      <c r="H39" s="35">
+        <v>1.8754246658215459</v>
+      </c>
+      <c r="I39" s="35">
+        <v>-0.95591801213767957</v>
+      </c>
+      <c r="J39" s="35">
+        <v>1.8754246658215459</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="36">
+        <v>0.22065346748891057</v>
+      </c>
+      <c r="D40" s="36">
+        <v>2.4264395743933968E-2</v>
+      </c>
+      <c r="E40" s="36">
+        <v>9.0937136789847042</v>
+      </c>
+      <c r="F40" s="36">
+        <v>7.8437178841730658E-6</v>
+      </c>
+      <c r="G40" s="36">
+        <v>0.16576359085580006</v>
+      </c>
+      <c r="H40" s="36">
+        <v>0.27554334412202108</v>
+      </c>
+      <c r="I40" s="36">
+        <v>0.16576359085580006</v>
+      </c>
+      <c r="J40" s="36">
+        <v>0.27554334412202108</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/21 - Basics of Data Analytics - Fudamentals/Class Notes/ClassNotes4_20180203_ManjunathVenkataAvvari_DAF.xlsx
+++ b/21 - Basics of Data Analytics - Fudamentals/Class Notes/ClassNotes4_20180203_ManjunathVenkataAvvari_DAF.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LEARNING\NPTEL - IISc &amp; IIT\IISc Proficience\21 - Basics of Data Analytics - Fudamentals\Class Notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Manju_GitHub\IISc-Proficience\21 - Basics of Data Analytics - Fudamentals\Class Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15645" windowHeight="6810" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15645" windowHeight="6810"/>
   </bookViews>
   <sheets>
     <sheet name="Problem1" sheetId="1" r:id="rId1"/>
@@ -2060,9 +2060,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2604,9 +2602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K36"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:K16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3463,7 +3459,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
